--- a/Code/Results/Cases/Case_2_222/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_222/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.27335095074904</v>
+        <v>10.83375004420119</v>
       </c>
       <c r="C2">
-        <v>6.514605259255561</v>
+        <v>9.206050745303376</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>8.143361384237057</v>
+        <v>12.11003470496157</v>
       </c>
       <c r="F2">
-        <v>30.27884324296193</v>
+        <v>16.86991607391245</v>
       </c>
       <c r="G2">
-        <v>17.9037925684195</v>
+        <v>26.62469591873874</v>
       </c>
       <c r="H2">
-        <v>8.184187645737788</v>
+        <v>13.91451702733977</v>
       </c>
       <c r="I2">
-        <v>13.0770665421101</v>
+        <v>21.7124971938866</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>10.786225419426</v>
+        <v>7.99412584584551</v>
       </c>
       <c r="L2">
-        <v>6.783601353530901</v>
+        <v>9.581100416257089</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>12.15276558784825</v>
+        <v>18.28449048474331</v>
       </c>
       <c r="O2">
-        <v>12.71222130737605</v>
+        <v>20.86595182941718</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.40159338462372</v>
+        <v>10.55838159648319</v>
       </c>
       <c r="C3">
-        <v>6.521603298123238</v>
+        <v>9.21468708579323</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>7.997909353890504</v>
+        <v>12.1180957827407</v>
       </c>
       <c r="F3">
-        <v>28.16301984326747</v>
+        <v>15.89584955866815</v>
       </c>
       <c r="G3">
-        <v>17.92824876046981</v>
+        <v>26.74208508639541</v>
       </c>
       <c r="H3">
-        <v>8.275895113495574</v>
+        <v>13.96016024177521</v>
       </c>
       <c r="I3">
-        <v>13.26148406439879</v>
+        <v>21.80247108980021</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>10.22107438553947</v>
+        <v>7.801862018353622</v>
       </c>
       <c r="L3">
-        <v>6.578789048343542</v>
+        <v>9.564801563295601</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>12.28960438688706</v>
+        <v>18.33100484410673</v>
       </c>
       <c r="O3">
-        <v>12.83687043903332</v>
+        <v>20.94797316095891</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.83396805104156</v>
+        <v>10.38695315693267</v>
       </c>
       <c r="C4">
-        <v>6.526979314096352</v>
+        <v>9.220534309491841</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>7.912052371718646</v>
+        <v>12.12531601372563</v>
       </c>
       <c r="F4">
-        <v>26.79314218379242</v>
+        <v>15.26997757108489</v>
       </c>
       <c r="G4">
-        <v>17.9645305232862</v>
+        <v>26.82160149607694</v>
       </c>
       <c r="H4">
-        <v>8.336092174382646</v>
+        <v>13.99000810512332</v>
       </c>
       <c r="I4">
-        <v>13.38269832819313</v>
+        <v>21.86128307796705</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>9.856767405567247</v>
+        <v>7.682097198892303</v>
       </c>
       <c r="L4">
-        <v>6.452832374289323</v>
+        <v>9.556375263256641</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>12.37645511517915</v>
+        <v>18.36111388065429</v>
       </c>
       <c r="O4">
-        <v>12.92257072235468</v>
+        <v>21.00207030532706</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.594490404422</v>
+        <v>10.31660522478335</v>
       </c>
       <c r="C5">
-        <v>6.529439910613124</v>
+        <v>9.223054449065412</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>7.877966293017534</v>
+        <v>12.12882995901315</v>
       </c>
       <c r="F5">
-        <v>26.21694803853475</v>
+        <v>15.008197319934</v>
       </c>
       <c r="G5">
-        <v>17.98443495393769</v>
+        <v>26.85586949816754</v>
       </c>
       <c r="H5">
-        <v>8.361578405239616</v>
+        <v>14.00263024293431</v>
       </c>
       <c r="I5">
-        <v>13.43404279534592</v>
+        <v>21.88614716625316</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>9.704038196485245</v>
+        <v>7.632927797011757</v>
       </c>
       <c r="L5">
-        <v>6.401530335284784</v>
+        <v>9.553342033030447</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>12.41256161190059</v>
+        <v>18.37377398241013</v>
       </c>
       <c r="O5">
-        <v>12.95971382745292</v>
+        <v>21.02505449487343</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.55423136882924</v>
+        <v>10.30489751778343</v>
       </c>
       <c r="C6">
-        <v>6.529864743240492</v>
+        <v>9.223481224585836</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>7.872361693721058</v>
+        <v>12.12944798808033</v>
       </c>
       <c r="F6">
-        <v>26.1201820470107</v>
+        <v>14.96433081551589</v>
       </c>
       <c r="G6">
-        <v>17.98804251058946</v>
+        <v>26.86167209690519</v>
       </c>
       <c r="H6">
-        <v>8.36586745891171</v>
+        <v>14.00475387145299</v>
       </c>
       <c r="I6">
-        <v>13.44268458179694</v>
+        <v>21.89033006804546</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>9.678422339808407</v>
+        <v>7.624743267682669</v>
       </c>
       <c r="L6">
-        <v>6.393015584153908</v>
+        <v>9.552862640349744</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>12.418600269314</v>
+        <v>18.37589979020974</v>
       </c>
       <c r="O6">
-        <v>12.96601305635861</v>
+        <v>21.02892771937583</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.83077146973202</v>
+        <v>10.38600626361724</v>
       </c>
       <c r="C7">
-        <v>6.527011408049161</v>
+        <v>9.220567740276051</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>7.911588983007335</v>
+        <v>12.12536108873213</v>
       </c>
       <c r="F7">
-        <v>26.78544435617556</v>
+        <v>15.26647399323133</v>
       </c>
       <c r="G7">
-        <v>17.96477853809947</v>
+        <v>26.82205610563113</v>
       </c>
       <c r="H7">
-        <v>8.336432050352039</v>
+        <v>13.99017647292026</v>
       </c>
       <c r="I7">
-        <v>13.38338296121629</v>
+        <v>21.86161476806507</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>9.854724821615866</v>
+        <v>7.681435467497802</v>
       </c>
       <c r="L7">
-        <v>6.452140285941494</v>
+        <v>9.556332730543884</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>12.37693916541846</v>
+        <v>18.36128303718559</v>
       </c>
       <c r="O7">
-        <v>12.92306276986514</v>
+        <v>21.00237647576951</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.97946824970298</v>
+        <v>10.73935037072336</v>
       </c>
       <c r="C8">
-        <v>6.516793251619285</v>
+        <v>9.208915810978823</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>8.092514059845145</v>
+        <v>12.11234333229319</v>
       </c>
       <c r="F8">
-        <v>29.56389055882486</v>
+        <v>16.5399640634477</v>
       </c>
       <c r="G8">
-        <v>17.90767586526059</v>
+        <v>26.66362407549088</v>
       </c>
       <c r="H8">
-        <v>8.214987445917629</v>
+        <v>13.92987682574578</v>
       </c>
       <c r="I8">
-        <v>13.13896076229421</v>
+        <v>21.74278009231114</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>10.59499474659592</v>
+        <v>7.928228057813123</v>
       </c>
       <c r="L8">
-        <v>6.713068649498688</v>
+        <v>9.575154221442393</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>12.1993612524394</v>
+        <v>18.30020768122503</v>
       </c>
       <c r="O8">
-        <v>12.75324561506664</v>
+        <v>20.89345730935571</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.9766568302245</v>
+        <v>11.40941112799735</v>
       </c>
       <c r="C9">
-        <v>6.505391358510143</v>
+        <v>9.190367483778129</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>8.473120421693128</v>
+        <v>12.10479646684006</v>
       </c>
       <c r="F9">
-        <v>34.4587799414611</v>
+        <v>19.00274580682531</v>
       </c>
       <c r="G9">
-        <v>17.97426737606272</v>
+        <v>26.41223400538371</v>
       </c>
       <c r="H9">
-        <v>8.008772529152489</v>
+        <v>13.82606726248896</v>
       </c>
       <c r="I9">
-        <v>12.72583189526048</v>
+        <v>21.53802553639428</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>11.90672063169356</v>
+        <v>8.395827386399525</v>
       </c>
       <c r="L9">
-        <v>7.220005339283952</v>
+        <v>9.624469679273941</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>11.87350587709544</v>
+        <v>18.19268842142235</v>
       </c>
       <c r="O9">
-        <v>12.49697992803274</v>
+        <v>20.70951769365184</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.29034290128802</v>
+        <v>11.88258540307328</v>
       </c>
       <c r="C10">
-        <v>6.502385459411503</v>
+        <v>9.179336451824819</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>8.766308028107701</v>
+        <v>12.1101543420611</v>
       </c>
       <c r="F10">
-        <v>37.72874519847217</v>
+        <v>20.67494806633232</v>
       </c>
       <c r="G10">
-        <v>18.14476700465415</v>
+        <v>26.26404411891849</v>
       </c>
       <c r="H10">
-        <v>7.878370439927254</v>
+        <v>13.75856561105716</v>
       </c>
       <c r="I10">
-        <v>12.46698040519173</v>
+        <v>21.40479365760996</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>12.78255676879366</v>
+        <v>8.725963991539725</v>
       </c>
       <c r="L10">
-        <v>7.585720734662704</v>
+        <v>9.668061450355577</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>11.64763576421543</v>
+        <v>18.12110325351383</v>
       </c>
       <c r="O10">
-        <v>12.36132224807225</v>
+        <v>20.59246552999998</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.85508072927207</v>
+        <v>12.09272027312019</v>
       </c>
       <c r="C11">
-        <v>6.502208747500067</v>
+        <v>9.174876484465015</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>8.902161582496294</v>
+        <v>12.11494223109886</v>
       </c>
       <c r="F11">
-        <v>39.14805722232856</v>
+        <v>21.3917225636224</v>
       </c>
       <c r="G11">
-        <v>18.25118556851405</v>
+        <v>26.20462884300842</v>
       </c>
       <c r="H11">
-        <v>7.824029711350324</v>
+        <v>13.72975395357509</v>
       </c>
       <c r="I11">
-        <v>12.35998970936518</v>
+        <v>21.3479104398457</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>13.16159605979993</v>
+        <v>8.872591739734064</v>
       </c>
       <c r="L11">
-        <v>7.749935799889263</v>
+        <v>9.689441644198888</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>11.54780864003963</v>
+        <v>18.09013387841266</v>
       </c>
       <c r="O11">
-        <v>12.31238244228115</v>
+        <v>20.54314623936083</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.06424539654995</v>
+        <v>12.171484967488</v>
       </c>
       <c r="C12">
-        <v>6.502315148020547</v>
+        <v>9.173267414639955</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>8.95392412151517</v>
+        <v>12.11709146253032</v>
       </c>
       <c r="F12">
-        <v>39.67592721363786</v>
+        <v>21.65686569030329</v>
       </c>
       <c r="G12">
-        <v>18.29581241999382</v>
+        <v>26.18328551677913</v>
       </c>
       <c r="H12">
-        <v>7.804205248651411</v>
+        <v>13.71911575646049</v>
       </c>
       <c r="I12">
-        <v>12.32112132254177</v>
+        <v>21.32690540167527</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>13.30232559008329</v>
+        <v>8.927556295619597</v>
       </c>
       <c r="L12">
-        <v>7.811760427165515</v>
+        <v>9.697756093321367</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>11.51042720411484</v>
+        <v>18.07863505462246</v>
       </c>
       <c r="O12">
-        <v>12.29580414723952</v>
+        <v>20.52503557081846</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.01940600531724</v>
+        <v>12.15455865483793</v>
       </c>
       <c r="C13">
-        <v>6.502284489909862</v>
+        <v>9.173610413356965</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>8.942762606243329</v>
+        <v>12.11661366801707</v>
       </c>
       <c r="F13">
-        <v>39.5626640325822</v>
+        <v>21.60004134736742</v>
       </c>
       <c r="G13">
-        <v>18.28600606573316</v>
+        <v>26.18783068015524</v>
       </c>
       <c r="H13">
-        <v>7.808440680440047</v>
+        <v>13.72139478430653</v>
       </c>
       <c r="I13">
-        <v>12.32941742391025</v>
+        <v>21.33140540309634</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>13.27214189153294</v>
+        <v>8.91574435145702</v>
       </c>
       <c r="L13">
-        <v>7.798462145287695</v>
+        <v>9.695955798876101</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>11.51845922503642</v>
+        <v>18.08110137674845</v>
       </c>
       <c r="O13">
-        <v>12.29928574964794</v>
+        <v>20.52891086810927</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.8723825989839</v>
+        <v>12.09921689967195</v>
       </c>
       <c r="C14">
-        <v>6.502214015208173</v>
+        <v>9.174742508026927</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>8.906413967924458</v>
+        <v>12.11511232386106</v>
       </c>
       <c r="F14">
-        <v>39.19167637503948</v>
+        <v>21.4136618050453</v>
       </c>
       <c r="G14">
-        <v>18.25476933786376</v>
+        <v>26.20284971436777</v>
       </c>
       <c r="H14">
-        <v>7.82238342268822</v>
+        <v>13.72887329044873</v>
       </c>
       <c r="I14">
-        <v>12.3567583854245</v>
+        <v>21.34617161346517</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>13.17323024024268</v>
+        <v>8.877125201793076</v>
       </c>
       <c r="L14">
-        <v>7.755029634583639</v>
+        <v>9.690121332814078</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>11.5447248040666</v>
+        <v>18.08918328597073</v>
       </c>
       <c r="O14">
-        <v>12.31097868283014</v>
+        <v>20.54164492735346</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.7817169391207</v>
+        <v>12.06521107492214</v>
       </c>
       <c r="C15">
-        <v>6.502193482488313</v>
+        <v>9.175446331179584</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>8.884189623861285</v>
+        <v>12.11423642673252</v>
       </c>
       <c r="F15">
-        <v>38.96319309123409</v>
+        <v>21.29868154950795</v>
       </c>
       <c r="G15">
-        <v>18.23620463168507</v>
+        <v>26.21220001862088</v>
       </c>
       <c r="H15">
-        <v>7.831022994499802</v>
+        <v>13.73348952281408</v>
       </c>
       <c r="I15">
-        <v>12.37372303880602</v>
+        <v>21.35528606357142</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>13.11227839450469</v>
+        <v>8.853395510649193</v>
       </c>
       <c r="L15">
-        <v>7.728377674111098</v>
+        <v>9.686575831620363</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>11.56086808065438</v>
+        <v>18.09416343760683</v>
       </c>
       <c r="O15">
-        <v>12.31839899469292</v>
+        <v>20.54951856573994</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.25277773819052</v>
+        <v>11.86874326257704</v>
       </c>
       <c r="C16">
-        <v>6.502421144672874</v>
+        <v>9.179639114795769</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>8.757476236539548</v>
+        <v>12.10988858894745</v>
       </c>
       <c r="F16">
-        <v>37.63463543028809</v>
+        <v>20.62722412089977</v>
       </c>
       <c r="G16">
-        <v>18.13840867534672</v>
+        <v>26.26808848498786</v>
       </c>
       <c r="H16">
-        <v>7.882025045417788</v>
+        <v>13.76048662440592</v>
       </c>
       <c r="I16">
-        <v>12.47419734576496</v>
+        <v>21.40858604130027</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>12.75739398607577</v>
+        <v>8.716305723627823</v>
       </c>
       <c r="L16">
-        <v>7.57494113671687</v>
+        <v>9.666695002864788</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>11.65421854961723</v>
+        <v>18.12315920643881</v>
       </c>
       <c r="O16">
-        <v>12.36478752941293</v>
+        <v>20.59576775953806</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.91989892907756</v>
+        <v>11.74685246634207</v>
       </c>
       <c r="C17">
-        <v>6.502867232918808</v>
+        <v>9.182353888919318</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>8.680348951998639</v>
+        <v>12.10782212539117</v>
       </c>
       <c r="F17">
-        <v>36.8022877826839</v>
+        <v>20.20408069597325</v>
       </c>
       <c r="G17">
-        <v>18.08593789087401</v>
+        <v>26.30442681799713</v>
       </c>
       <c r="H17">
-        <v>7.914614077500488</v>
+        <v>13.77753360433218</v>
       </c>
       <c r="I17">
-        <v>12.53865947203165</v>
+        <v>21.44223766908421</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>12.53470482402351</v>
+        <v>8.631259225843408</v>
       </c>
       <c r="L17">
-        <v>7.480223886718014</v>
+        <v>9.654892531423767</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>11.71223478846527</v>
+        <v>18.14135516115</v>
       </c>
       <c r="O17">
-        <v>12.39659877326902</v>
+        <v>20.62514669433692</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.72534020911479</v>
+        <v>11.67626668408585</v>
       </c>
       <c r="C18">
-        <v>6.503235752882029</v>
+        <v>9.183967912530226</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>8.636223174866586</v>
+        <v>12.10685492136204</v>
       </c>
       <c r="F18">
-        <v>36.31710943239618</v>
+        <v>19.95656407809801</v>
       </c>
       <c r="G18">
-        <v>18.05846465360223</v>
+        <v>26.32608004282366</v>
       </c>
       <c r="H18">
-        <v>7.933824757018355</v>
+        <v>13.7875169813223</v>
       </c>
       <c r="I18">
-        <v>12.57674295009307</v>
+        <v>21.46194378494467</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>12.40479600065594</v>
+        <v>8.582010987765067</v>
       </c>
       <c r="L18">
-        <v>7.42554524666784</v>
+        <v>9.648250258273373</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>11.74587917335299</v>
+        <v>18.15197117399756</v>
       </c>
       <c r="O18">
-        <v>12.41609055733978</v>
+        <v>20.64241439713864</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.65893319611769</v>
+        <v>11.65228789308066</v>
       </c>
       <c r="C19">
-        <v>6.503379691213606</v>
+        <v>9.184523433093975</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>8.621324654213494</v>
+        <v>12.10656551595357</v>
       </c>
       <c r="F19">
-        <v>36.15172494150058</v>
+        <v>19.87204792380568</v>
       </c>
       <c r="G19">
-        <v>18.04962180627086</v>
+        <v>26.33354048787579</v>
       </c>
       <c r="H19">
-        <v>7.940408173210059</v>
+        <v>13.7909278340285</v>
       </c>
       <c r="I19">
-        <v>12.58980735332333</v>
+        <v>21.46867615779242</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>12.36049849409467</v>
+        <v>8.565280970701831</v>
       </c>
       <c r="L19">
-        <v>7.406999332440063</v>
+        <v>9.646026546084286</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>11.75731780223145</v>
+        <v>18.15559139076192</v>
       </c>
       <c r="O19">
-        <v>12.42289183679893</v>
+        <v>20.64832442609591</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.95565457145585</v>
+        <v>11.75987791239771</v>
       </c>
       <c r="C20">
-        <v>6.502808145636954</v>
+        <v>9.182059460218744</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>8.6885351661437</v>
+        <v>12.10801920554489</v>
       </c>
       <c r="F20">
-        <v>36.89155697731404</v>
+        <v>20.24955283636154</v>
       </c>
       <c r="G20">
-        <v>18.09124202394304</v>
+        <v>26.30048062812974</v>
       </c>
       <c r="H20">
-        <v>7.911096396660586</v>
+        <v>13.77570046270701</v>
       </c>
       <c r="I20">
-        <v>12.53169250078458</v>
+        <v>21.4386191126745</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>12.55859938086282</v>
+        <v>8.640347274390283</v>
       </c>
       <c r="L20">
-        <v>7.490327763585117</v>
+        <v>9.656133826895328</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>11.70603039878267</v>
+        <v>18.13940263311682</v>
       </c>
       <c r="O20">
-        <v>12.39308791701789</v>
+        <v>20.62198098808339</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.91569390591007</v>
+        <v>12.11549461918902</v>
       </c>
       <c r="C21">
-        <v>6.50222999431689</v>
+        <v>9.17440782145389</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>8.917082124276373</v>
+        <v>12.11554419753875</v>
       </c>
       <c r="F21">
-        <v>39.30090300329766</v>
+        <v>21.46857628470577</v>
       </c>
       <c r="G21">
-        <v>18.26382551368445</v>
+        <v>26.19840684135216</v>
       </c>
       <c r="H21">
-        <v>7.818267349464547</v>
+        <v>13.72666928868589</v>
       </c>
       <c r="I21">
-        <v>12.3486821618924</v>
+        <v>21.34181989028338</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>13.20235920184528</v>
+        <v>8.88848415831279</v>
       </c>
       <c r="L21">
-        <v>7.767796962290641</v>
+        <v>9.691829172545722</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>11.53699853360306</v>
+        <v>18.08680323502873</v>
       </c>
       <c r="O21">
-        <v>12.30749019107152</v>
+        <v>20.5378892738537</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.51582012637634</v>
+        <v>12.34316665746996</v>
       </c>
       <c r="C22">
-        <v>6.502863415749043</v>
+        <v>9.16987210154784</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>9.06828589435305</v>
+        <v>12.12242060645947</v>
       </c>
       <c r="F22">
-        <v>40.81974568026789</v>
+        <v>22.22866616901552</v>
       </c>
       <c r="G22">
-        <v>18.40191823143753</v>
+        <v>26.13843607700771</v>
       </c>
       <c r="H22">
-        <v>7.762007751589723</v>
+        <v>13.69621072979788</v>
       </c>
       <c r="I22">
-        <v>12.23872425069221</v>
+        <v>21.2816766673417</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>13.60674410289431</v>
+        <v>9.047370700392786</v>
       </c>
       <c r="L22">
-        <v>7.947021153471201</v>
+        <v>9.716427839747157</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>11.42898081690816</v>
+        <v>18.05375863635575</v>
       </c>
       <c r="O22">
-        <v>12.26299496514072</v>
+        <v>20.48622678921198</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.19800840025782</v>
+        <v>12.22211049954207</v>
       </c>
       <c r="C23">
-        <v>6.502432094247679</v>
+        <v>9.172250489823423</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>8.987430170049899</v>
+        <v>12.11857201316207</v>
       </c>
       <c r="F23">
-        <v>40.01414225038419</v>
+        <v>21.82633154458858</v>
       </c>
       <c r="G23">
-        <v>18.32584630690351</v>
+        <v>26.16982494693585</v>
       </c>
       <c r="H23">
-        <v>7.791618044169371</v>
+        <v>13.71232202314861</v>
       </c>
       <c r="I23">
-        <v>12.29649300634308</v>
+        <v>21.31349075230641</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>13.39241607368031</v>
+        <v>8.962885806715953</v>
       </c>
       <c r="L23">
-        <v>7.851574841342004</v>
+        <v>9.703184496160571</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>11.48640689808012</v>
+        <v>18.07127351762751</v>
       </c>
       <c r="O23">
-        <v>12.28565546158941</v>
+        <v>20.51349821905289</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.93949936031812</v>
+        <v>11.75399068844784</v>
       </c>
       <c r="C24">
-        <v>6.50283451011923</v>
+        <v>9.18219240549678</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>8.684833503809642</v>
+        <v>12.10792941760896</v>
       </c>
       <c r="F24">
-        <v>36.8512191057543</v>
+        <v>20.22900810905287</v>
       </c>
       <c r="G24">
-        <v>18.08883565132795</v>
+        <v>26.30226232799042</v>
       </c>
       <c r="H24">
-        <v>7.912685264009355</v>
+        <v>13.77652865647218</v>
       </c>
       <c r="I24">
-        <v>12.53483908839891</v>
+        <v>21.44025394267966</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>12.54780251190128</v>
+        <v>8.636239666090434</v>
       </c>
       <c r="L24">
-        <v>7.485760495985108</v>
+        <v>9.655572191049064</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>11.70883449987867</v>
+        <v>18.14028488843045</v>
       </c>
       <c r="O24">
-        <v>12.39467143667131</v>
+        <v>20.62341102847576</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.46350117549299</v>
+        <v>11.23114801908</v>
       </c>
       <c r="C25">
-        <v>6.507540599674767</v>
+        <v>9.194927481968515</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>8.36761531137447</v>
+        <v>12.10491835507053</v>
       </c>
       <c r="F25">
-        <v>33.19272459126715</v>
+        <v>18.34778573295695</v>
       </c>
       <c r="G25">
-        <v>17.93578000560128</v>
+        <v>26.47385600954469</v>
       </c>
       <c r="H25">
-        <v>8.060979793551688</v>
+        <v>13.8526084386826</v>
       </c>
       <c r="I25">
-        <v>12.83008594745715</v>
+        <v>21.59039365689064</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>11.567158068497</v>
+        <v>8.271450600796316</v>
       </c>
       <c r="L25">
-        <v>7.083791165796857</v>
+        <v>9.609820267497888</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>11.95927559816188</v>
+        <v>18.2204699314607</v>
       </c>
       <c r="O25">
-        <v>12.55750589266788</v>
+        <v>20.75610271232742</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_222/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_222/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>10.83375004420119</v>
+        <v>13.27335095074909</v>
       </c>
       <c r="C2">
-        <v>9.206050745303376</v>
+        <v>6.514605259255426</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>12.11003470496157</v>
+        <v>8.14336138423706</v>
       </c>
       <c r="F2">
-        <v>16.86991607391245</v>
+        <v>30.27884324296195</v>
       </c>
       <c r="G2">
-        <v>26.62469591873874</v>
+        <v>17.90379256841938</v>
       </c>
       <c r="H2">
-        <v>13.91451702733977</v>
+        <v>8.184187645737794</v>
       </c>
       <c r="I2">
-        <v>21.7124971938866</v>
+        <v>13.07706654210994</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>7.99412584584551</v>
+        <v>10.78622541942604</v>
       </c>
       <c r="L2">
-        <v>9.581100416257089</v>
+        <v>6.783601353530917</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>18.28449048474331</v>
+        <v>12.15276558784818</v>
       </c>
       <c r="O2">
-        <v>20.86595182941718</v>
+        <v>12.71222130737592</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>10.55838159648319</v>
+        <v>12.40159338462366</v>
       </c>
       <c r="C3">
-        <v>9.21468708579323</v>
+        <v>6.521603298123624</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>12.1180957827407</v>
+        <v>7.997909353890519</v>
       </c>
       <c r="F3">
-        <v>15.89584955866815</v>
+        <v>28.1630198432675</v>
       </c>
       <c r="G3">
-        <v>26.74208508639541</v>
+        <v>17.92824876046993</v>
       </c>
       <c r="H3">
-        <v>13.96016024177521</v>
+        <v>8.275895113495519</v>
       </c>
       <c r="I3">
-        <v>21.80247108980021</v>
+        <v>13.2614840643988</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>7.801862018353622</v>
+        <v>10.2210743855394</v>
       </c>
       <c r="L3">
-        <v>9.564801563295601</v>
+        <v>6.578789048343503</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>18.33100484410673</v>
+        <v>12.28960438688699</v>
       </c>
       <c r="O3">
-        <v>20.94797316095891</v>
+        <v>12.83687043903333</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10.38695315693267</v>
+        <v>11.83396805104155</v>
       </c>
       <c r="C4">
-        <v>9.220534309491841</v>
+        <v>6.526979314096612</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>12.12531601372563</v>
+        <v>7.912052371718755</v>
       </c>
       <c r="F4">
-        <v>15.26997757108489</v>
+        <v>26.79314218379246</v>
       </c>
       <c r="G4">
-        <v>26.82160149607694</v>
+        <v>17.96453052328591</v>
       </c>
       <c r="H4">
-        <v>13.99000810512332</v>
+        <v>8.336092174382653</v>
       </c>
       <c r="I4">
-        <v>21.86128307796705</v>
+        <v>13.38269832819314</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>7.682097198892303</v>
+        <v>9.856767405567284</v>
       </c>
       <c r="L4">
-        <v>9.556375263256641</v>
+        <v>6.452832374289359</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>18.36111388065429</v>
+        <v>12.37645511517911</v>
       </c>
       <c r="O4">
-        <v>21.00207030532706</v>
+        <v>12.9225707223546</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.31660522478335</v>
+        <v>11.59449040442192</v>
       </c>
       <c r="C5">
-        <v>9.223054449065412</v>
+        <v>6.529439910613512</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>12.12882995901315</v>
+        <v>7.877966293017693</v>
       </c>
       <c r="F5">
-        <v>15.008197319934</v>
+        <v>26.2169480385347</v>
       </c>
       <c r="G5">
-        <v>26.85586949816754</v>
+        <v>17.98443495393783</v>
       </c>
       <c r="H5">
-        <v>14.00263024293431</v>
+        <v>8.361578405239678</v>
       </c>
       <c r="I5">
-        <v>21.88614716625316</v>
+        <v>13.43404279534608</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>7.632927797011757</v>
+        <v>9.704038196485232</v>
       </c>
       <c r="L5">
-        <v>9.553342033030447</v>
+        <v>6.401530335284766</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>18.37377398241013</v>
+        <v>12.41256161190062</v>
       </c>
       <c r="O5">
-        <v>21.02505449487343</v>
+        <v>12.95971382745302</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.30489751778343</v>
+        <v>11.55423136882931</v>
       </c>
       <c r="C6">
-        <v>9.223481224585836</v>
+        <v>6.529864743240623</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>12.12944798808033</v>
+        <v>7.872361693721251</v>
       </c>
       <c r="F6">
-        <v>14.96433081551589</v>
+        <v>26.12018204701072</v>
       </c>
       <c r="G6">
-        <v>26.86167209690519</v>
+        <v>17.98804251058927</v>
       </c>
       <c r="H6">
-        <v>14.00475387145299</v>
+        <v>8.365867458911715</v>
       </c>
       <c r="I6">
-        <v>21.89033006804546</v>
+        <v>13.44268458179685</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>7.624743267682669</v>
+        <v>9.678422339808458</v>
       </c>
       <c r="L6">
-        <v>9.552862640349744</v>
+        <v>6.393015584153988</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>18.37589979020974</v>
+        <v>12.418600269314</v>
       </c>
       <c r="O6">
-        <v>21.02892771937583</v>
+        <v>12.96601305635853</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>10.38600626361724</v>
+        <v>11.83077146973201</v>
       </c>
       <c r="C7">
-        <v>9.220567740276051</v>
+        <v>6.527011408049291</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>12.12536108873213</v>
+        <v>7.911588983007331</v>
       </c>
       <c r="F7">
-        <v>15.26647399323133</v>
+        <v>26.78544435617556</v>
       </c>
       <c r="G7">
-        <v>26.82205610563113</v>
+        <v>17.96477853809967</v>
       </c>
       <c r="H7">
-        <v>13.99017647292026</v>
+        <v>8.336432050351979</v>
       </c>
       <c r="I7">
-        <v>21.86161476806507</v>
+        <v>13.38338296121638</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>7.681435467497802</v>
+        <v>9.854724821615882</v>
       </c>
       <c r="L7">
-        <v>9.556332730543884</v>
+        <v>6.452140285941447</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>18.36128303718559</v>
+        <v>12.37693916541853</v>
       </c>
       <c r="O7">
-        <v>21.00237647576951</v>
+        <v>12.92306276986519</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>10.73935037072336</v>
+        <v>12.97946824970297</v>
       </c>
       <c r="C8">
-        <v>9.208915810978823</v>
+        <v>6.516793251619539</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>12.11234333229319</v>
+        <v>8.092514059845097</v>
       </c>
       <c r="F8">
-        <v>16.5399640634477</v>
+        <v>29.56389055882491</v>
       </c>
       <c r="G8">
-        <v>26.66362407549088</v>
+        <v>17.90767586526035</v>
       </c>
       <c r="H8">
-        <v>13.92987682574578</v>
+        <v>8.214987445917629</v>
       </c>
       <c r="I8">
-        <v>21.74278009231114</v>
+        <v>13.1389607622942</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>7.928228057813123</v>
+        <v>10.59499474659594</v>
       </c>
       <c r="L8">
-        <v>9.575154221442393</v>
+        <v>6.713068649498645</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>18.30020768122503</v>
+        <v>12.1993612524394</v>
       </c>
       <c r="O8">
-        <v>20.89345730935571</v>
+        <v>12.75324561506657</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>11.40941112799735</v>
+        <v>14.97665683022453</v>
       </c>
       <c r="C9">
-        <v>9.190367483778129</v>
+        <v>6.505391358509871</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>12.10479646684006</v>
+        <v>8.473120421693134</v>
       </c>
       <c r="F9">
-        <v>19.00274580682531</v>
+        <v>34.45877994146107</v>
       </c>
       <c r="G9">
-        <v>26.41223400538371</v>
+        <v>17.97426737606283</v>
       </c>
       <c r="H9">
-        <v>13.82606726248896</v>
+        <v>8.008772529152509</v>
       </c>
       <c r="I9">
-        <v>21.53802553639428</v>
+        <v>12.72583189526054</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>8.395827386399525</v>
+        <v>11.90672063169351</v>
       </c>
       <c r="L9">
-        <v>9.624469679273941</v>
+        <v>7.220005339283958</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>18.19268842142235</v>
+        <v>11.87350587709543</v>
       </c>
       <c r="O9">
-        <v>20.70951769365184</v>
+        <v>12.49697992803279</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>11.88258540307328</v>
+        <v>16.29034290128805</v>
       </c>
       <c r="C10">
-        <v>9.179336451824819</v>
+        <v>6.502385459411365</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>12.1101543420611</v>
+        <v>8.76630802810768</v>
       </c>
       <c r="F10">
-        <v>20.67494806633232</v>
+        <v>37.72874519847221</v>
       </c>
       <c r="G10">
-        <v>26.26404411891849</v>
+        <v>18.14476700465389</v>
       </c>
       <c r="H10">
-        <v>13.75856561105716</v>
+        <v>7.878370439927203</v>
       </c>
       <c r="I10">
-        <v>21.40479365760996</v>
+        <v>12.4669804051916</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>8.725963991539725</v>
+        <v>12.78255676879369</v>
       </c>
       <c r="L10">
-        <v>9.668061450355577</v>
+        <v>7.585720734662675</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>18.12110325351383</v>
+        <v>11.64763576421533</v>
       </c>
       <c r="O10">
-        <v>20.59246552999998</v>
+        <v>12.36132224807211</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>12.09272027312019</v>
+        <v>16.85508072927208</v>
       </c>
       <c r="C11">
-        <v>9.174876484465015</v>
+        <v>6.50220874749992</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>12.11494223109886</v>
+        <v>8.902161582496273</v>
       </c>
       <c r="F11">
-        <v>21.3917225636224</v>
+        <v>39.1480572223286</v>
       </c>
       <c r="G11">
-        <v>26.20462884300842</v>
+        <v>18.25118556851415</v>
       </c>
       <c r="H11">
-        <v>13.72975395357509</v>
+        <v>7.824029711350324</v>
       </c>
       <c r="I11">
-        <v>21.3479104398457</v>
+        <v>12.35998970936514</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>8.872591739734064</v>
+        <v>13.16159605979989</v>
       </c>
       <c r="L11">
-        <v>9.689441644198888</v>
+        <v>7.749935799889272</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>18.09013387841266</v>
+        <v>11.54780864003962</v>
       </c>
       <c r="O11">
-        <v>20.54314623936083</v>
+        <v>12.31238244228121</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>12.171484967488</v>
+        <v>17.06424539654995</v>
       </c>
       <c r="C12">
-        <v>9.173267414639955</v>
+        <v>6.502315148020537</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>12.11709146253032</v>
+        <v>8.953924121515184</v>
       </c>
       <c r="F12">
-        <v>21.65686569030329</v>
+        <v>39.67592721363786</v>
       </c>
       <c r="G12">
-        <v>26.18328551677913</v>
+        <v>18.29581241999396</v>
       </c>
       <c r="H12">
-        <v>13.71911575646049</v>
+        <v>7.804205248651519</v>
       </c>
       <c r="I12">
-        <v>21.32690540167527</v>
+        <v>12.32112132254184</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>8.927556295619597</v>
+        <v>13.30232559008326</v>
       </c>
       <c r="L12">
-        <v>9.697756093321367</v>
+        <v>7.81176042716553</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>18.07863505462246</v>
+        <v>11.51042720411486</v>
       </c>
       <c r="O12">
-        <v>20.52503557081846</v>
+        <v>12.29580414723958</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>12.15455865483793</v>
+        <v>17.01940600531714</v>
       </c>
       <c r="C13">
-        <v>9.173610413356965</v>
+        <v>6.502284489909991</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>12.11661366801707</v>
+        <v>8.942762606243383</v>
       </c>
       <c r="F13">
-        <v>21.60004134736742</v>
+        <v>39.56266403258223</v>
       </c>
       <c r="G13">
-        <v>26.18783068015524</v>
+        <v>18.2860060657334</v>
       </c>
       <c r="H13">
-        <v>13.72139478430653</v>
+        <v>7.808440680440164</v>
       </c>
       <c r="I13">
-        <v>21.33140540309634</v>
+        <v>12.32941742391042</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>8.91574435145702</v>
+        <v>13.27214189153292</v>
       </c>
       <c r="L13">
-        <v>9.695955798876101</v>
+        <v>7.798462145287679</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>18.08110137674845</v>
+        <v>11.51845922503645</v>
       </c>
       <c r="O13">
-        <v>20.52891086810927</v>
+        <v>12.29928574964801</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>12.09921689967195</v>
+        <v>16.87238259898388</v>
       </c>
       <c r="C14">
-        <v>9.174742508026927</v>
+        <v>6.502214015208161</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>12.11511232386106</v>
+        <v>8.906413967924509</v>
       </c>
       <c r="F14">
-        <v>21.4136618050453</v>
+        <v>39.19167637503946</v>
       </c>
       <c r="G14">
-        <v>26.20284971436777</v>
+        <v>18.25476933786386</v>
       </c>
       <c r="H14">
-        <v>13.72887329044873</v>
+        <v>7.822383422688274</v>
       </c>
       <c r="I14">
-        <v>21.34617161346517</v>
+        <v>12.35675838542458</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>8.877125201793076</v>
+        <v>13.17323024024266</v>
       </c>
       <c r="L14">
-        <v>9.690121332814078</v>
+        <v>7.755029634583664</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>18.08918328597073</v>
+        <v>11.54472480406663</v>
       </c>
       <c r="O14">
-        <v>20.54164492735346</v>
+        <v>12.31097868283022</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>12.06521107492214</v>
+        <v>16.78171693912072</v>
       </c>
       <c r="C15">
-        <v>9.175446331179584</v>
+        <v>6.502193482488032</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>12.11423642673252</v>
+        <v>8.884189623861289</v>
       </c>
       <c r="F15">
-        <v>21.29868154950795</v>
+        <v>38.96319309123407</v>
       </c>
       <c r="G15">
-        <v>26.21220001862088</v>
+        <v>18.23620463168505</v>
       </c>
       <c r="H15">
-        <v>13.73348952281408</v>
+        <v>7.831022994499688</v>
       </c>
       <c r="I15">
-        <v>21.35528606357142</v>
+        <v>12.37372303880595</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>8.853395510649193</v>
+        <v>13.11227839450466</v>
       </c>
       <c r="L15">
-        <v>9.686575831620363</v>
+        <v>7.728377674111108</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>18.09416343760683</v>
+        <v>11.56086808065431</v>
       </c>
       <c r="O15">
-        <v>20.54951856573994</v>
+        <v>12.31839899469287</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>11.86874326257704</v>
+        <v>16.25277773819058</v>
       </c>
       <c r="C16">
-        <v>9.179639114795769</v>
+        <v>6.502421144672605</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>12.10988858894745</v>
+        <v>8.757476236539606</v>
       </c>
       <c r="F16">
-        <v>20.62722412089977</v>
+        <v>37.63463543028808</v>
       </c>
       <c r="G16">
-        <v>26.26808848498786</v>
+        <v>18.13840867534689</v>
       </c>
       <c r="H16">
-        <v>13.76048662440592</v>
+        <v>7.882025045417794</v>
       </c>
       <c r="I16">
-        <v>21.40858604130027</v>
+        <v>12.47419734576497</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>8.716305723627823</v>
+        <v>12.7573939860758</v>
       </c>
       <c r="L16">
-        <v>9.666695002864788</v>
+        <v>7.574941136716916</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>18.12315920643881</v>
+        <v>11.65421854961727</v>
       </c>
       <c r="O16">
-        <v>20.59576775953806</v>
+        <v>12.36478752941299</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>11.74685246634207</v>
+        <v>15.91989892907757</v>
       </c>
       <c r="C17">
-        <v>9.182353888919318</v>
+        <v>6.502867232918806</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>12.10782212539117</v>
+        <v>8.680348951998642</v>
       </c>
       <c r="F17">
-        <v>20.20408069597325</v>
+        <v>36.80228778268388</v>
       </c>
       <c r="G17">
-        <v>26.30442681799713</v>
+        <v>18.08593789087406</v>
       </c>
       <c r="H17">
-        <v>13.77753360433218</v>
+        <v>7.914614077500488</v>
       </c>
       <c r="I17">
-        <v>21.44223766908421</v>
+        <v>12.53865947203171</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>8.631259225843408</v>
+        <v>12.53470482402352</v>
       </c>
       <c r="L17">
-        <v>9.654892531423767</v>
+        <v>7.480223886718032</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>18.14135516115</v>
+        <v>11.71223478846531</v>
       </c>
       <c r="O17">
-        <v>20.62514669433692</v>
+        <v>12.39659877326904</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>11.67626668408585</v>
+        <v>15.72534020911475</v>
       </c>
       <c r="C18">
-        <v>9.183967912530226</v>
+        <v>6.503235752882157</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>12.10685492136204</v>
+        <v>8.636223174866625</v>
       </c>
       <c r="F18">
-        <v>19.95656407809801</v>
+        <v>36.31710943239619</v>
       </c>
       <c r="G18">
-        <v>26.32608004282366</v>
+        <v>18.05846465360224</v>
       </c>
       <c r="H18">
-        <v>13.7875169813223</v>
+        <v>7.933824757018358</v>
       </c>
       <c r="I18">
-        <v>21.46194378494467</v>
+        <v>12.57674295009311</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>8.582010987765067</v>
+        <v>12.40479600065594</v>
       </c>
       <c r="L18">
-        <v>9.648250258273373</v>
+        <v>7.425545246667841</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>18.15197117399756</v>
+        <v>11.74587917335299</v>
       </c>
       <c r="O18">
-        <v>20.64241439713864</v>
+        <v>12.41609055733979</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>11.65228789308066</v>
+        <v>15.65893319611762</v>
       </c>
       <c r="C19">
-        <v>9.184523433093975</v>
+        <v>6.503379691213985</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>12.10656551595357</v>
+        <v>8.621324654213542</v>
       </c>
       <c r="F19">
-        <v>19.87204792380568</v>
+        <v>36.15172494150059</v>
       </c>
       <c r="G19">
-        <v>26.33354048787579</v>
+        <v>18.04962180627097</v>
       </c>
       <c r="H19">
-        <v>13.7909278340285</v>
+        <v>7.940408173210072</v>
       </c>
       <c r="I19">
-        <v>21.46867615779242</v>
+        <v>12.58980735332346</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>8.565280970701831</v>
+        <v>12.36049849409465</v>
       </c>
       <c r="L19">
-        <v>9.646026546084286</v>
+        <v>7.406999332440047</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>18.15559139076192</v>
+        <v>11.75731780223144</v>
       </c>
       <c r="O19">
-        <v>20.64832442609591</v>
+        <v>12.42289183679899</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>11.75987791239771</v>
+        <v>15.95565457145584</v>
       </c>
       <c r="C20">
-        <v>9.182059460218744</v>
+        <v>6.502808145637208</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>12.10801920554489</v>
+        <v>8.688535166143744</v>
       </c>
       <c r="F20">
-        <v>20.24955283636154</v>
+        <v>36.89155697731402</v>
       </c>
       <c r="G20">
-        <v>26.30048062812974</v>
+        <v>18.09124202394308</v>
       </c>
       <c r="H20">
-        <v>13.77570046270701</v>
+        <v>7.911096396660647</v>
       </c>
       <c r="I20">
-        <v>21.4386191126745</v>
+        <v>12.53169250078468</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>8.640347274390283</v>
+        <v>12.55859938086285</v>
       </c>
       <c r="L20">
-        <v>9.656133826895328</v>
+        <v>7.490327763585116</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>18.13940263311682</v>
+        <v>11.7060303987827</v>
       </c>
       <c r="O20">
-        <v>20.62198098808339</v>
+        <v>12.39308791701795</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>12.11549461918902</v>
+        <v>16.91569390591009</v>
       </c>
       <c r="C21">
-        <v>9.17440782145389</v>
+        <v>6.502229994316891</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>12.11554419753875</v>
+        <v>8.91708212427638</v>
       </c>
       <c r="F21">
-        <v>21.46857628470577</v>
+        <v>39.30090300329761</v>
       </c>
       <c r="G21">
-        <v>26.19840684135216</v>
+        <v>18.26382551368435</v>
       </c>
       <c r="H21">
-        <v>13.72666928868589</v>
+        <v>7.81826734946449</v>
       </c>
       <c r="I21">
-        <v>21.34181989028338</v>
+        <v>12.34868216189229</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>8.88848415831279</v>
+        <v>13.2023592018453</v>
       </c>
       <c r="L21">
-        <v>9.691829172545722</v>
+        <v>7.767796962290636</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>18.08680323502873</v>
+        <v>11.53699853360299</v>
       </c>
       <c r="O21">
-        <v>20.5378892738537</v>
+        <v>12.30749019107139</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>12.34316665746996</v>
+        <v>17.51582012637634</v>
       </c>
       <c r="C22">
-        <v>9.16987210154784</v>
+        <v>6.502863415749288</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>12.12242060645947</v>
+        <v>9.068285894353037</v>
       </c>
       <c r="F22">
-        <v>22.22866616901552</v>
+        <v>40.81974568026784</v>
       </c>
       <c r="G22">
-        <v>26.13843607700771</v>
+        <v>18.40191823143762</v>
       </c>
       <c r="H22">
-        <v>13.69621072979788</v>
+        <v>7.762007751589736</v>
       </c>
       <c r="I22">
-        <v>21.2816766673417</v>
+        <v>12.2387242506923</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>9.047370700392786</v>
+        <v>13.60674410289432</v>
       </c>
       <c r="L22">
-        <v>9.716427839747157</v>
+        <v>7.947021153471172</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>18.05375863635575</v>
+        <v>11.42898081690816</v>
       </c>
       <c r="O22">
-        <v>20.48622678921198</v>
+        <v>12.26299496514076</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>12.22211049954207</v>
+        <v>17.19800840025789</v>
       </c>
       <c r="C23">
-        <v>9.172250489823423</v>
+        <v>6.502432094247668</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>12.11857201316207</v>
+        <v>8.987430170049876</v>
       </c>
       <c r="F23">
-        <v>21.82633154458858</v>
+        <v>40.01414225038427</v>
       </c>
       <c r="G23">
-        <v>26.16982494693585</v>
+        <v>18.32584630690362</v>
       </c>
       <c r="H23">
-        <v>13.71232202314861</v>
+        <v>7.791618044169267</v>
       </c>
       <c r="I23">
-        <v>21.31349075230641</v>
+        <v>12.29649300634299</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>8.962885806715953</v>
+        <v>13.39241607368033</v>
       </c>
       <c r="L23">
-        <v>9.703184496160571</v>
+        <v>7.85157484134201</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>18.07127351762751</v>
+        <v>11.48640689808009</v>
       </c>
       <c r="O23">
-        <v>20.51349821905289</v>
+        <v>12.28565546158935</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>11.75399068844784</v>
+        <v>15.9394993603181</v>
       </c>
       <c r="C24">
-        <v>9.18219240549678</v>
+        <v>6.502834510119207</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>12.10792941760896</v>
+        <v>8.684833503809656</v>
       </c>
       <c r="F24">
-        <v>20.22900810905287</v>
+        <v>36.8512191057544</v>
       </c>
       <c r="G24">
-        <v>26.30226232799042</v>
+        <v>18.08883565132784</v>
       </c>
       <c r="H24">
-        <v>13.77652865647218</v>
+        <v>7.912685264009475</v>
       </c>
       <c r="I24">
-        <v>21.44025394267966</v>
+        <v>12.53483908839891</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>8.636239666090434</v>
+        <v>12.54780251190125</v>
       </c>
       <c r="L24">
-        <v>9.655572191049064</v>
+        <v>7.485760495985105</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>18.14028488843045</v>
+        <v>11.70883449987864</v>
       </c>
       <c r="O24">
-        <v>20.62341102847576</v>
+        <v>12.3946714366713</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>11.23114801908</v>
+        <v>14.46350117549293</v>
       </c>
       <c r="C25">
-        <v>9.194927481968515</v>
+        <v>6.507540599675029</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>12.10491835507053</v>
+        <v>8.367615311374431</v>
       </c>
       <c r="F25">
-        <v>18.34778573295695</v>
+        <v>33.19272459126714</v>
       </c>
       <c r="G25">
-        <v>26.47385600954469</v>
+        <v>17.93578000560124</v>
       </c>
       <c r="H25">
-        <v>13.8526084386826</v>
+        <v>8.060979793551697</v>
       </c>
       <c r="I25">
-        <v>21.59039365689064</v>
+        <v>12.83008594745725</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>8.271450600796316</v>
+        <v>11.56715806849697</v>
       </c>
       <c r="L25">
-        <v>9.609820267497888</v>
+        <v>7.083791165796827</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>18.2204699314607</v>
+        <v>11.95927559816187</v>
       </c>
       <c r="O25">
-        <v>20.75610271232742</v>
+        <v>12.5575058926679</v>
       </c>
     </row>
   </sheetData>
